--- a/data/Biomerieux.xlsx
+++ b/data/Biomerieux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="17 02 2017" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="02 03 2017" sheetId="10" r:id="rId10"/>
     <sheet name="03 03 2017" sheetId="11" r:id="rId11"/>
     <sheet name="06 03 2017" sheetId="12" r:id="rId12"/>
-    <sheet name="14 03 2017" sheetId="13" r:id="rId13"/>
-    <sheet name="07 03 2017" sheetId="14" r:id="rId14"/>
-    <sheet name="08 03 2017" sheetId="15" r:id="rId15"/>
-    <sheet name="09 03 2017" sheetId="16" r:id="rId16"/>
-    <sheet name="10 03 2017" sheetId="17" r:id="rId17"/>
-    <sheet name="13 03 2017" sheetId="18" r:id="rId18"/>
+    <sheet name="07 03 2017" sheetId="14" r:id="rId13"/>
+    <sheet name="08 03 2017" sheetId="15" r:id="rId14"/>
+    <sheet name="09 03 2017" sheetId="16" r:id="rId15"/>
+    <sheet name="10 03 2017" sheetId="17" r:id="rId16"/>
+    <sheet name="13 03 2017" sheetId="18" r:id="rId17"/>
+    <sheet name="14 03 2017" sheetId="13" r:id="rId18"/>
     <sheet name="15 03 2017" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +862,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.15075000000000002</v>
+        <v>5.5550000000000009E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -971,11 +971,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.45</v>
+        <v>-0.11</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>7.6500000000000012E-2</v>
+        <v>-1.8700000000000001E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1778,7 +1778,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.42210000000000003</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1666</v>
+        <v>0.11220000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2642,7 +2642,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.27950000000000003</v>
+        <v>0.15539999999999998</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.1</v>
+        <v>-0.63</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>1.7000000000000001E-2</v>
+        <v>-0.10710000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3508,7 +3508,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>4.4399999999999995E-2</v>
+        <v>0.2722</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3617,11 +3617,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.48</v>
+        <v>0.86</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>-8.1600000000000006E-2</v>
+        <v>0.1462</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4316,7 +4316,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="101" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -4377,12 +4377,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.13739999999999999</v>
+        <v>-8.9000000000000024E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4413,16 +4413,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>1.9999999999999976E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>4.4999999999999945E-3</v>
+        <v>-3.1500000000000007E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4491,11 +4491,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.12</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>2.0400000000000001E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4678,14 +4678,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>4.0000000000000008E-2</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4717,14 +4717,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4756,14 +4756,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4795,14 +4795,14 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>-0.06</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4834,14 +4834,14 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5001,9 +5001,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -5026,7 +5024,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5040,9 +5038,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -5079,9 +5075,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5118,9 +5112,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5157,9 +5149,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -5261,12 +5251,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.2306</v>
+        <v>0.2359</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -5297,16 +5287,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>-0.14000000000000001</v>
+        <v>-0.12400000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>-3.1500000000000007E-2</v>
+        <v>-2.7900000000000005E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -5375,11 +5365,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.14960000000000001</v>
+        <v>0.15130000000000002</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5562,11 +5552,11 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>-4.0000000000000008E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -5601,14 +5591,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5647,7 +5637,7 @@
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5724,8 +5714,8 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>30</v>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5885,7 +5875,9 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -5908,7 +5900,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5922,7 +5914,9 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -5959,7 +5953,9 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5996,7 +5992,9 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -6033,7 +6031,9 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -6074,7 +6074,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -6140,7 +6140,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>8.9700000000000002E-2</v>
+        <v>0.19160000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6171,11 +6171,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>-0.12400000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>-2.7900000000000005E-2</v>
+        <v>3.1500000000000007E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -6249,11 +6249,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.03</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>5.1000000000000004E-3</v>
+        <v>4.760000000000001E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6436,14 +6436,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6475,14 +6475,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6514,14 +6514,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6553,14 +6553,14 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6592,14 +6592,14 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6958,7 +6958,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" customWidth="1"/>
+    <col min="5" max="5" width="89.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -7024,7 +7024,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.21880000000000002</v>
+        <v>9.290000000000001E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7055,11 +7055,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.14000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>3.1500000000000007E-2</v>
+        <v>0.12150000000000001</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -7133,11 +7133,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.44</v>
+        <v>-0.83</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>7.4800000000000005E-2</v>
+        <v>-0.1411</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -7320,14 +7320,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -7359,14 +7359,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7398,14 +7398,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7437,14 +7437,14 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7476,14 +7476,14 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7842,7 +7842,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="89.140625" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -7908,7 +7908,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.27140000000000003</v>
+        <v>0.25880000000000003</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7939,11 +7939,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.54</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>0.12150000000000001</v>
+        <v>6.3000000000000014E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -8017,11 +8017,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>3.7400000000000003E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8204,14 +8204,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -8243,14 +8243,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -8282,14 +8282,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8321,14 +8321,14 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -8360,14 +8360,14 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8719,14 +8719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="102.5703125" customWidth="1"/>
+    <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -8792,7 +8792,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.24350000000000002</v>
+        <v>0.22070000000000001</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.28000000000000003</v>
+        <v>1.9999999999999976E-2</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>6.3000000000000014E-2</v>
+        <v>4.4999999999999945E-3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -8901,11 +8901,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>6.8000000000000005E-2</v>
+        <v>0.1037</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9088,11 +9088,11 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.06</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>67</v>
@@ -9127,14 +9127,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>82</v>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -9166,14 +9166,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>8.0000000000000016E-2</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -9205,13 +9205,13 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.06</v>
-      </c>
-      <c r="E14" s="9" t="s">
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="2"/>
@@ -9244,11 +9244,11 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>4.0000000000000008E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>71</v>
@@ -9676,7 +9676,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32830000000000004</v>
+        <v>0.19060000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -9785,11 +9785,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.74</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1258</v>
+        <v>-1.1900000000000003E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -10560,7 +10560,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.33875000000000005</v>
+        <v>0.33705000000000007</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -10669,11 +10669,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1275</v>
+        <v>0.1258</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -11444,7 +11444,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32879999999999998</v>
+        <v>0.4546</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -11553,11 +11553,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.19</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>3.2300000000000002E-2</v>
+        <v>0.15810000000000002</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -12328,7 +12328,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.30149999999999999</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -12437,11 +12437,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>6.8000000000000005E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -13209,7 +13209,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.35660000000000003</v>
+        <v>0.38040000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -13318,11 +13318,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.57999999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>9.8600000000000007E-2</v>
+        <v>0.12240000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14081,7 +14081,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.3155</v>
+        <v>0.154</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -14190,11 +14190,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.3</v>
+        <v>-0.65</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>5.1000000000000004E-2</v>
+        <v>-0.11050000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14949,7 +14949,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32980000000000004</v>
+        <v>0.25840000000000007</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -15058,11 +15058,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>9.1800000000000007E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -15817,7 +15817,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.33879999999999999</v>
+        <v>0.1076</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -15926,11 +15926,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.54</v>
+        <v>-0.82</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>9.1800000000000007E-2</v>
+        <v>-0.1394</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -16685,7 +16685,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.41589999999999999</v>
+        <v>0.39889999999999998</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -16794,11 +16794,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>4.5900000000000003E-2</v>
+        <v>2.8900000000000006E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/data/Biomerieux.xlsx
+++ b/data/Biomerieux.xlsx
@@ -9,28 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="17 02 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="20 02 2017" sheetId="2" r:id="rId2"/>
-    <sheet name="21 02 2017" sheetId="3" r:id="rId3"/>
-    <sheet name="22 02 2017" sheetId="4" r:id="rId4"/>
-    <sheet name="23 02 2017" sheetId="5" r:id="rId5"/>
-    <sheet name="24 02 2017" sheetId="6" r:id="rId6"/>
-    <sheet name="27 02 2017" sheetId="7" r:id="rId7"/>
-    <sheet name="28 02 2017" sheetId="8" r:id="rId8"/>
-    <sheet name="01 03 2017" sheetId="9" r:id="rId9"/>
-    <sheet name="02 03 2017" sheetId="10" r:id="rId10"/>
-    <sheet name="03 03 2017" sheetId="11" r:id="rId11"/>
-    <sheet name="06 03 2017" sheetId="12" r:id="rId12"/>
-    <sheet name="07 03 2017" sheetId="14" r:id="rId13"/>
-    <sheet name="08 03 2017" sheetId="15" r:id="rId14"/>
-    <sheet name="09 03 2017" sheetId="16" r:id="rId15"/>
-    <sheet name="10 03 2017" sheetId="17" r:id="rId16"/>
-    <sheet name="13 03 2017" sheetId="18" r:id="rId17"/>
-    <sheet name="14 03 2017" sheetId="13" r:id="rId18"/>
-    <sheet name="15 03 2017" sheetId="19" r:id="rId19"/>
+    <sheet name="24 02 2017" sheetId="6" r:id="rId1"/>
+    <sheet name="27 02 2017" sheetId="7" r:id="rId2"/>
+    <sheet name="28 02 2017" sheetId="8" r:id="rId3"/>
+    <sheet name="01 03 2017" sheetId="9" r:id="rId4"/>
+    <sheet name="02 03 2017" sheetId="10" r:id="rId5"/>
+    <sheet name="03 03 2017" sheetId="11" r:id="rId6"/>
+    <sheet name="06 03 2017" sheetId="12" r:id="rId7"/>
+    <sheet name="07 03 2017" sheetId="14" r:id="rId8"/>
+    <sheet name="08 03 2017" sheetId="15" r:id="rId9"/>
+    <sheet name="09 03 2017" sheetId="16" r:id="rId10"/>
+    <sheet name="10 03 2017" sheetId="17" r:id="rId11"/>
+    <sheet name="13 03 2017" sheetId="18" r:id="rId12"/>
+    <sheet name="14 03 2017" sheetId="13" r:id="rId13"/>
+    <sheet name="15 03 2017" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="64">
   <si>
     <t>Critère</t>
   </si>
@@ -83,31 +78,16 @@
     <t>Bollinger</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserment des bandes </t>
-  </si>
-  <si>
     <t>Stochastique</t>
-  </si>
-  <si>
-    <t>%K coupe à la hausse le %D</t>
   </si>
   <si>
     <t>Moyennes mobiles</t>
   </si>
   <si>
-    <t>Evolution ascendante de la courbe</t>
-  </si>
-  <si>
     <t>MACD</t>
   </si>
   <si>
-    <t>Pas de traversée de la MACD</t>
-  </si>
-  <si>
     <t>RSI</t>
-  </si>
-  <si>
-    <t>Courbe dans l'interval [30;70]</t>
   </si>
   <si>
     <t>Indicateur finance</t>
@@ -116,43 +96,19 @@
     <t>BNA</t>
   </si>
   <si>
-    <t>Augmentation net de 1% par rapport à 2016</t>
-  </si>
-  <si>
     <t>PER</t>
-  </si>
-  <si>
-    <t>Diminution net</t>
   </si>
   <si>
     <t>Dividende</t>
   </si>
   <si>
-    <t>faible augmentation</t>
-  </si>
-  <si>
     <t>Rendement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faible augmentation </t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Agenda économique</t>
-  </si>
-  <si>
     <t>Idem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traversée à la basse (Vente) </t>
-  </si>
-  <si>
-    <t>Idem (59)</t>
   </si>
   <si>
     <t>17h00</t>
@@ -161,25 +117,7 @@
     <t>%K au dessus de %D</t>
   </si>
   <si>
-    <t>MACD et signal égaux (1.24)</t>
-  </si>
-  <si>
-    <t>Idem (64)</t>
-  </si>
-  <si>
-    <t>16h45</t>
-  </si>
-  <si>
-    <t>MACD et Signal égaux</t>
-  </si>
-  <si>
-    <t>Idem(62)</t>
-  </si>
-  <si>
     <t>11h20</t>
-  </si>
-  <si>
-    <t>Resserement des bandes</t>
   </si>
   <si>
     <t>%K egal %D</t>
@@ -351,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,12 +330,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12.1"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -424,27 +356,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -454,7 +371,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,9 +385,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,21 +701,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="17" width="8.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
     <col min="18" max="26" width="9.7109375" customWidth="1"/>
     <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
@@ -852,17 +764,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>5.5550000000000009E-2</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -893,11 +805,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>5.0000000000000017E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>1.1250000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -933,11 +845,11 @@
       </c>
       <c r="C4" s="2">
         <f>SUM(D20:D24)</f>
-        <v>0.27999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2">
         <f>B4*C4</f>
-        <v>6.3E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -971,11 +883,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.11</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>-1.8700000000000001E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1158,15 +1070,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1191,20 +1101,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-0.15000000000000002</v>
+        <v>-0.1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1230,21 +1140,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1269,20 +1177,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.06</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1308,20 +1216,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36.5</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1349,10 +1257,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>5.0000000000000017E-2</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1432,9 +1337,9 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1470,23 +1375,21 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
       </c>
-      <c r="C20" s="10">
-        <v>0.72</v>
+      <c r="C20" s="2">
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f>B20*C20</f>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1509,23 +1412,21 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
       </c>
-      <c r="C21" s="10">
-        <v>0.16</v>
+      <c r="C21" s="2">
+        <v>-0.5</v>
       </c>
       <c r="D21" s="2">
         <f>B21*C21</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1548,23 +1449,21 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
       </c>
-      <c r="C22" s="10">
-        <v>0.32</v>
+      <c r="C22" s="2">
+        <v>0.5</v>
       </c>
       <c r="D22" s="2">
         <f>B22*C22</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1587,23 +1486,21 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
       </c>
-      <c r="C23" s="10">
-        <v>-0.16</v>
+      <c r="C23" s="2">
+        <v>0.5</v>
       </c>
       <c r="D23" s="2">
         <f>B23*C23</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1626,23 +1523,21 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
       </c>
-      <c r="C24" s="10">
-        <v>0.36</v>
+      <c r="C24" s="2">
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <f>B24*C24</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1665,39 +1560,8 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1711,10 +1575,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -1724,21 +1588,21 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1768,17 +1632,19 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0.15200000000000002</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.36770000000000003</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1809,16 +1675,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>-3.999999999999998E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>-8.9999999999999959E-3</v>
+        <v>3.1500000000000007E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1887,11 +1753,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.11220000000000001</v>
+        <v>0.1666</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2041,8 +1907,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2074,13 +1940,15 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2105,20 +1973,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-0.12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2144,7 +2012,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
@@ -2156,7 +2024,9 @@
         <f>B13*C13</f>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2181,19 +2051,21 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2218,19 +2090,21 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0.06</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2339,7 +2213,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -2350,8 +2224,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2377,7 +2251,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -2389,7 +2263,9 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2412,9 +2288,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -2426,7 +2302,9 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2451,7 +2329,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -2463,7 +2341,9 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2488,7 +2368,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -2500,7 +2380,9 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2525,7 +2407,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -2537,7 +2419,9 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2561,7 +2445,7 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2575,10 +2459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="89.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -2588,13 +2472,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2602,7 +2486,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2632,17 +2516,19 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0.11399999999999999</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.15539999999999998</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2673,16 +2559,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.16</v>
+        <v>0.54</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>3.6000000000000004E-2</v>
+        <v>0.12150000000000001</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2751,11 +2637,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.63</v>
+        <v>0.84</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>-0.10710000000000001</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2906,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2938,13 +2824,15 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2969,20 +2857,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3008,19 +2896,21 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3045,20 +2935,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3084,7 +2974,7 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
@@ -3096,7 +2986,9 @@
         <f>B15*C15</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3205,7 +3097,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -3217,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3243,7 +3135,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -3255,7 +3147,9 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3278,9 +3172,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -3292,7 +3186,9 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3317,7 +3213,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -3329,7 +3225,9 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3354,7 +3252,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -3366,7 +3264,9 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3391,7 +3291,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -3403,7 +3303,9 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3427,7 +3329,7 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3444,7 +3346,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -3454,13 +3356,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3468,7 +3370,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3504,11 +3406,13 @@
         <f>B2*C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.2722</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3539,16 +3443,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>5.9999999999999984E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>1.3499999999999996E-2</v>
+        <v>6.3000000000000014E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3617,11 +3521,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.86</v>
+        <v>0.18</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1462</v>
+        <v>3.0600000000000002E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3772,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3804,14 +3708,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>-2.0000000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3837,20 +3741,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3876,20 +3780,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3915,20 +3819,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.06</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3954,20 +3858,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4077,7 +3981,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -4089,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4115,7 +4019,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -4127,7 +4031,9 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4150,9 +4056,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -4164,7 +4070,9 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4189,7 +4097,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -4201,7 +4109,9 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4226,7 +4136,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -4238,7 +4148,9 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4263,7 +4175,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -4275,7 +4187,9 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4299,7 +4213,7 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4316,7 +4230,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="101" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -4326,13 +4240,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4340,7 +4254,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -4377,12 +4291,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-8.9000000000000024E-2</v>
+        <v>0.27</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4413,16 +4327,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>-0.14000000000000001</v>
+        <v>1.9999999999999976E-2</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>-3.1500000000000007E-2</v>
+        <v>4.4999999999999945E-3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4491,11 +4405,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>-0.17</v>
+        <v>0.15300000000000002</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4646,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4678,14 +4592,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>-4.0000000000000008E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4711,20 +4625,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4750,20 +4664,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4789,20 +4703,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.06</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4828,20 +4742,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>30</v>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4951,7 +4865,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -4963,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4989,7 +4903,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -5001,7 +4915,9 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -5024,9 +4940,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -5038,7 +4954,9 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -5063,7 +4981,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -5075,7 +4993,9 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5100,7 +5020,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -5112,7 +5032,9 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5137,7 +5059,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -5149,7 +5071,9 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -5173,7 +5097,7 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5190,7 +5114,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -5200,13 +5124,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5214,7 +5138,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5251,12 +5175,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.2359</v>
+        <v>0.32490000000000002</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -5287,16 +5211,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>-0.12400000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>-2.7900000000000005E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -5365,11 +5289,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.15130000000000002</v>
+        <v>0.12240000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5520,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5552,14 +5476,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.02</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5585,20 +5509,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5624,20 +5548,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5663,20 +5587,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.06</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5702,20 +5626,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5825,7 +5749,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -5837,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5863,7 +5787,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -5876,7 +5800,7 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5902,7 +5826,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -5915,7 +5839,7 @@
         <v>-0.1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5941,7 +5865,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -5954,7 +5878,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5980,7 +5904,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -5993,7 +5917,7 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -6019,7 +5943,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -6032,7 +5956,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -6057,13 +5981,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -6071,10 +5995,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -6084,21 +6008,21 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6128,19 +6052,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.19160000000000002</v>
+        <v>0.25160000000000005</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6171,16 +6093,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.14000000000000001</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>3.1500000000000007E-2</v>
+        <v>4.9500000000000009E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6249,11 +6171,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>4.760000000000001E-2</v>
+        <v>1.3600000000000001E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6403,8 +6325,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -6436,15 +6358,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -6469,20 +6389,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6508,21 +6428,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -6547,20 +6465,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6586,20 +6504,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>46.5</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6709,7 +6627,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -6720,8 +6638,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6747,7 +6665,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -6759,9 +6677,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -6784,9 +6700,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -6798,9 +6714,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -6825,7 +6739,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -6837,9 +6751,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -6864,7 +6776,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -6876,9 +6788,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -6903,7 +6813,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -6915,9 +6825,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -6941,13 +6849,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -6955,10 +6863,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="89.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -6968,21 +6876,21 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -7012,19 +6920,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>9.290000000000001E-2</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7055,16 +6961,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>0.12150000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -7287,8 +7193,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7320,15 +7226,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7353,20 +7257,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7392,21 +7296,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -7431,20 +7333,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7470,21 +7372,19 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7593,7 +7493,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -7604,8 +7504,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7631,7 +7531,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -7643,9 +7543,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -7668,9 +7566,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -7682,9 +7580,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -7709,7 +7605,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -7721,9 +7617,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -7748,7 +7642,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -7760,9 +7654,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -7787,7 +7679,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -7799,9 +7691,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -7825,13 +7715,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -7839,10 +7729,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="102.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -7852,21 +7742,21 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -7896,19 +7786,19 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.25880000000000003</v>
+        <v>0.2782</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7939,16 +7829,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>6.3000000000000014E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -8017,11 +7907,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.49</v>
+        <v>-0.54</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>8.3299999999999999E-2</v>
+        <v>-9.1800000000000007E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8171,8 +8061,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8204,15 +8094,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8237,21 +8125,19 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>82</v>
-      </c>
+        <v>-0.06</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8276,21 +8162,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8315,21 +8199,19 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.06</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8354,21 +8236,19 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8477,7 +8357,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -8488,8 +8368,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -8515,7 +8395,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -8527,9 +8407,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -8552,9 +8430,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -8566,9 +8444,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -8593,7 +8469,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -8605,9 +8481,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -8632,7 +8506,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -8644,9 +8518,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -8671,7 +8543,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -8683,9 +8555,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -8709,24 +8579,24 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="101" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -8736,21 +8606,21 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -8780,19 +8650,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.22070000000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -8823,16 +8691,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>1.9999999999999976E-2</v>
+        <v>-3.999999999999998E-2</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>4.4999999999999945E-3</v>
+        <v>-8.9999999999999959E-3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -8901,11 +8769,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.61</v>
+        <v>-0.79</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1037</v>
+        <v>-0.1343</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9055,8 +8923,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -9088,15 +8956,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9121,20 +8987,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>-0.12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -9160,21 +9026,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -9199,21 +9063,19 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -9238,21 +9100,19 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9361,7 +9221,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -9372,8 +9232,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -9399,7 +9259,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -9411,9 +9271,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -9436,9 +9294,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -9450,9 +9308,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -9477,7 +9333,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -9489,9 +9345,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -9516,7 +9370,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -9528,9 +9382,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -9555,7 +9407,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -9567,9 +9419,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -9593,13 +9443,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -9607,10 +9457,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="88.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="17" width="7.42578125" customWidth="1"/>
@@ -9620,13 +9470,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9634,7 +9484,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -9664,19 +9514,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.19060000000000002</v>
+        <v>0.3322</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -9707,16 +9555,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>9.0000000000000011E-2</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -9785,11 +9633,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>-1.1900000000000003E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9940,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -9972,15 +9820,13 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -10005,20 +9851,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0.12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -10044,21 +9890,19 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -10083,20 +9927,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.06</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>-0.12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -10122,21 +9966,19 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -10245,7 +10087,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -10257,7 +10099,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -10283,7 +10125,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -10295,9 +10137,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -10320,9 +10160,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -10334,9 +10174,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -10361,7 +10199,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -10373,9 +10211,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -10400,7 +10236,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -10412,9 +10248,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -10439,7 +10273,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -10451,9 +10285,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -10477,13 +10309,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -10491,34 +10323,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="17" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
     <col min="18" max="26" width="9.7109375" customWidth="1"/>
     <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -10548,19 +10380,17 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.33705000000000007</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -10591,16 +10421,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.31000000000000005</v>
+        <v>5.9999999999999984E-2</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>6.975000000000002E-2</v>
+        <v>1.3499999999999996E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -10631,11 +10461,11 @@
       </c>
       <c r="C4" s="2">
         <f>SUM(D20:D24)</f>
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2">
         <f>B4*C4</f>
-        <v>0.10350000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -10669,11 +10499,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.74</v>
+        <v>-0.27</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1258</v>
+        <v>-4.5900000000000003E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -10823,8 +10653,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -10856,14 +10686,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.06</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -10889,20 +10719,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-0.12</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -10928,20 +10758,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10967,20 +10797,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.75</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>0.15000000000000002</v>
+        <v>-0.06</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -11006,20 +10836,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>8.0000000000000016E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -11129,7 +10959,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -11140,8 +10970,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -11167,7 +10997,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -11179,9 +11009,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -11206,21 +11034,19 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="D21" s="2">
         <f>B21*C21</f>
-        <v>-0.13999999999999999</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -11245,7 +11071,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -11257,9 +11083,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -11284,7 +11108,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -11296,9 +11120,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -11323,7 +11145,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -11335,9 +11157,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -11361,13 +11181,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -11375,34 +11195,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="17" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
     <col min="18" max="26" width="9.7109375" customWidth="1"/>
     <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -11432,19 +11252,19 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>7.6000000000000012E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.4546</v>
+        <v>-1.5900000000000011E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -11475,16 +11295,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.48</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>0.108</v>
+        <v>-3.1500000000000007E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -11553,11 +11373,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.93</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.15810000000000002</v>
+        <v>-9.69E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -11707,8 +11527,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -11740,14 +11560,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.1</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -11773,20 +11593,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>0.18000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -11812,20 +11632,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -11851,20 +11671,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-8.0000000000000016E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -11890,20 +11710,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -12013,7 +11833,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -12024,8 +11844,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -12051,7 +11871,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -12063,9 +11883,7 @@
         <f>B20*C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -12090,7 +11908,7 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -12102,9 +11920,7 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -12129,7 +11945,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -12141,9 +11957,7 @@
         <f>B22*C22</f>
         <v>0.1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -12168,7 +11982,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -12180,9 +11994,7 @@
         <f>B23*C23</f>
         <v>0.1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -12207,7 +12019,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -12219,9 +12031,7 @@
         <f>B24*C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -12245,13 +12055,13 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
@@ -12259,34 +12069,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="17" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" customWidth="1"/>
     <col min="18" max="26" width="9.7109375" customWidth="1"/>
     <col min="27" max="1025" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -12316,19 +12126,19 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>7.6000000000000012E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.35420000000000001</v>
+        <v>-1.0600000000000026E-2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -12359,16 +12169,16 @@
       </c>
       <c r="C3" s="2">
         <f>SUM(D11:D15)</f>
-        <v>0.19999999999999998</v>
+        <v>-0.12400000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>B3*C3</f>
-        <v>4.4999999999999998E-2</v>
+        <v>-2.7900000000000005E-2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -12437,11 +12247,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.71</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">B5*C5</f>
-        <v>0.1207</v>
+        <v>-9.5200000000000021E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -12591,8 +12401,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -12624,14 +12434,14 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.7</v>
+        <v>-0.02</v>
       </c>
       <c r="D11" s="2">
         <f>B11*C11</f>
-        <v>0.13999999999999999</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -12657,20 +12467,20 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D12" s="2">
         <f>B12*C12</f>
-        <v>-4.0000000000000008E-2</v>
+        <v>-2.0000000000000004E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -12696,20 +12506,20 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D13" s="2">
         <f>B13*C13</f>
-        <v>0.1</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -12735,20 +12545,20 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>0.2</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" s="2">
         <f>B14*C14</f>
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -12774,20 +12584,20 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <f>B15*C15</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -12897,7 +12707,7 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -12908,8 +12718,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -12935,7 +12745,7 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0.2</v>
@@ -12948,7 +12758,7 @@
         <v>0.2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -12972,9 +12782,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0.2</v>
@@ -12986,8 +12796,8 @@
         <f>B21*C21</f>
         <v>-0.1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -13013,7 +12823,7 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0.2</v>
@@ -13026,7 +12836,7 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -13052,7 +12862,7 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
@@ -13061,10 +12871,11 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="2">
+        <f>B23*C23</f>
         <v>0.1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -13090,7 +12901,7 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0.2</v>
@@ -13103,7 +12914,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -13128,4345 +12939,7 @@
       <c r="Z24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="1025" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>0.11399999999999999</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.38040000000000002</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>3.15E-2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>0.1125</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.72</v>
-      </c>
-      <c r="D5" s="2">
-        <f ca="1">B5*C5</f>
-        <v>0.12240000000000001</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B11*C11</f>
-        <v>0.12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.6</v>
-      </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
-        <v>-0.12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-0.7</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>-0.13999999999999999</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>B20*C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21*C21</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22*C22</f>
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2">
-        <f>B23*C23</f>
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>B24*C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="1025" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>0.15200000000000002</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.154</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>0.1125</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.65</v>
-      </c>
-      <c r="D5" s="2">
-        <f ca="1">B5*C5</f>
-        <v>-0.11050000000000001</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B11*C11</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-0.4</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>36.5</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>B20*C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21*C21</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22*C22</f>
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2">
-        <f>B23*C23</f>
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>B24*C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="1025" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>7.6000000000000012E-2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.25840000000000007</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>4.9500000000000009E-2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>0.1125</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.12</v>
-      </c>
-      <c r="D5" s="2">
-        <f ca="1">B5*C5</f>
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B11*C11</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>46.5</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>B20*C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21*C21</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22*C22</f>
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2">
-        <f>B23*C23</f>
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>B24*C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="1025" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>7.6000000000000012E-2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.1076</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>0.26</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>0.1125</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.82</v>
-      </c>
-      <c r="D5" s="2">
-        <f ca="1">B5*C5</f>
-        <v>-0.1394</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B11*C11</f>
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>B20*C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21*C21</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22*C22</f>
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2">
-        <f>B23*C23</f>
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>B24*C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="1025" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>0.19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.39889999999999998</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f>SUM(D11:D15)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="2">
-        <f>B3*C3</f>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>SUM(D20:D24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>B4*C4</f>
-        <v>0.1125</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="2">
-        <f ca="1">B5*C5</f>
-        <v>2.8900000000000006E-2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f>B11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
-        <v>-0.06</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>0.12</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>B20*C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D21" s="2">
-        <f>B21*C21</f>
-        <v>-0.1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f>B22*C22</f>
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="2">
-        <f>B23*C23</f>
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>B24*C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
